--- a/kittyserver/gametools/parseExcelTool/Excel/ManservantClasses.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/ManservantClasses.xlsx
@@ -171,7 +171,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BlackMarket.tip28</t>
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +222,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -275,7 +283,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +583,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -740,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -800,7 +808,7 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <v>10</v>
